--- a/public/imports/template-tunggakan.xlsx
+++ b/public/imports/template-tunggakan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwickycandralesmana/Sites/personal/projects/rapor/public/imports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwickycandralesmana/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65288018-F9DA-3643-B28C-03530C919D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6CE827-0305-F540-9026-E0C6A0F22B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-43020" yWindow="5740" windowWidth="28040" windowHeight="17440" xr2:uid="{487BF9B8-42BD-3E48-A83E-8DF679596E70}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>nis</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>spp</t>
+  </si>
+  <si>
+    <t>deskripsi</t>
+  </si>
+  <si>
+    <t>test deskripsi</t>
   </si>
 </sst>
 </file>
@@ -425,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32A7D00-4FB3-FC42-B752-B15706EE837E}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,7 +442,7 @@
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,8 +455,11 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6589</v>
       </c>
@@ -463,8 +472,11 @@
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6589</v>
       </c>

--- a/public/imports/template-tunggakan.xlsx
+++ b/public/imports/template-tunggakan.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwickycandralesmana/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwickycandralesmana/Sites/personal/projects/rapor/public/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6CE827-0305-F540-9026-E0C6A0F22B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4492D67C-E827-A943-BFFE-8A045729CDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-43020" yWindow="5740" windowWidth="28040" windowHeight="17440" xr2:uid="{487BF9B8-42BD-3E48-A83E-8DF679596E70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>nis</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>test deskripsi</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -431,18 +434,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32A7D00-4FB3-FC42-B752-B15706EE837E}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,13 +457,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6589</v>
       </c>
@@ -470,13 +477,16 @@
         <v>3</v>
       </c>
       <c r="D2">
+        <v>10000</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6589</v>
       </c>
@@ -487,6 +497,9 @@
         <v>5</v>
       </c>
       <c r="D3">
+        <v>1920000</v>
+      </c>
+      <c r="E3">
         <v>120000</v>
       </c>
     </row>
